--- a/ConfigWorksheet.xlsx
+++ b/ConfigWorksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Tasks</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>Chrome, ie, firefox</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>http://login.salesforce.com</t>
-  </si>
-  <si>
-    <t>ameyanatu@abn.com, PavanD605</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>Switch To UI</t>
@@ -463,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -483,58 +471,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A19">
       <formula1>Tasks</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -621,10 +571,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>15</v>
